--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-prescription-bundle-for-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
